--- a/data/trans_camb/P71_R-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P71_R-Dificultad-trans_camb.xlsx
@@ -1160,7 +1160,7 @@
         <v>15.41851097673593</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>-3.753928367336656</v>
+        <v>-3.753928367336659</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>3.788803350905062</v>
@@ -1169,7 +1169,7 @@
         <v>7.890777670217153</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-10.95798351759882</v>
+        <v>-10.95798351759883</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>8.11198161396551</v>
@@ -1189,31 +1189,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>10.46714548724683</v>
+        <v>10.24650174526569</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>13.23963521889419</v>
+        <v>13.16935614055511</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-5.704728459582966</v>
+        <v>-5.586474182786263</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1.520736784054249</v>
+        <v>1.55640790648274</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>5.717489077076264</v>
+        <v>5.777536112162808</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-12.87411129760924</v>
+        <v>-12.92216397284037</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>6.446396619752647</v>
+        <v>6.453828664818391</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>9.821844411434823</v>
+        <v>9.949935748296493</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-8.69575237258268</v>
+        <v>-8.810267317465229</v>
       </c>
     </row>
     <row r="30">
@@ -1224,31 +1224,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>14.59054713034066</v>
+        <v>14.67816502171514</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>17.43022503271612</v>
+        <v>17.57994631728838</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-2.131628641802369</v>
+        <v>-1.798366945460401</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>6.001408816739986</v>
+        <v>6.176140035117958</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>10.17048967245567</v>
+        <v>10.15253138368101</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-8.979925980480449</v>
+        <v>-8.945600409670847</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>9.619710599776853</v>
+        <v>9.719139371648824</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>13.15214550385662</v>
+        <v>13.08736749790664</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-5.988197068450353</v>
+        <v>-6.057699003669529</v>
       </c>
     </row>
     <row r="31">
@@ -1265,7 +1265,7 @@
         <v>0.8527828431291723</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.2076261262083501</v>
+        <v>-0.2076261262083502</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.1361738458060436</v>
@@ -1274,7 +1274,7 @@
         <v>0.2836034077876446</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.393842229239535</v>
+        <v>-0.3938422292395351</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.3524745529256893</v>
@@ -1294,31 +1294,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.5423609895652837</v>
+        <v>0.5340446333249418</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.6865921483452407</v>
+        <v>0.683957868994767</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.2958379593938599</v>
+        <v>-0.2948974477912629</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.05170693823999317</v>
+        <v>0.05394053208180018</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.1970324195957109</v>
+        <v>0.200471072118783</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.4479617247536934</v>
+        <v>-0.4483224716721109</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2746004227956654</v>
+        <v>0.2737790780931311</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.4095125979857981</v>
+        <v>0.415286875135339</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.3663947228553095</v>
+        <v>-0.3697522544359216</v>
       </c>
     </row>
     <row r="33">
@@ -1329,31 +1329,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.8519765779694217</v>
+        <v>0.860341808284341</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>1.013666884242374</v>
+        <v>1.031053895623021</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.1216868936267443</v>
+        <v>-0.1072776909556017</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.2255426294794179</v>
+        <v>0.2331859638729336</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.3868299369864585</v>
+        <v>0.3824113183149616</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.3385825610886851</v>
+        <v>-0.3377120044885751</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.4340270633118906</v>
+        <v>0.4354849223411493</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.5918701945010846</v>
+        <v>0.5838089607928617</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.2688876503944739</v>
+        <v>-0.2713533538933948</v>
       </c>
     </row>
     <row r="34">
